--- a/DegreePrjWinForm/DegreePrjWinForm/Source/report.xlsx
+++ b/DegreePrjWinForm/DegreePrjWinForm/Source/report.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
-    <t>Прогноз потребности в СНО на период с 00.00 01.05.2020 по 23.59 03.05.2020</t>
+    <t>Прогноз потребности в СНО на период с 00:00 01.05.2020 по 23:59 03.05.2020</t>
   </si>
   <si>
     <t>Блок</t>
@@ -626,7 +626,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -708,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="10">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -718,7 +718,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="10">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -728,7 +728,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="10">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -772,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -796,7 +796,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -816,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -840,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="10">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -850,7 +850,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="10">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -894,7 +894,7 @@
         <v>7</v>
       </c>
       <c r="D26" s="10">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -904,7 +904,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="10">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -928,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="D30" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -948,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -972,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -982,7 +982,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="10">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1002,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1016,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="10">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1026,7 +1026,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1036,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1046,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="10">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="D42" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="10">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1104,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="10">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1114,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="D46" s="10">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1124,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="10">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="D48" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1148,7 +1148,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="10">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1158,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="D50" s="10">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1168,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="10">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -1178,7 +1178,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1192,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="10">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -1202,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="D54" s="10">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -1212,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="10">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1236,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -1246,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="10">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -1256,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="10">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -1266,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1280,7 +1280,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="10">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -1290,7 +1290,7 @@
         <v>7</v>
       </c>
       <c r="D62" s="10">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="10">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -1310,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -1324,7 +1324,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="10">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="D66" s="10">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="10">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -1368,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -1378,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="D70" s="10">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="10">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -1398,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -1412,7 +1412,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="10">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -1422,7 +1422,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="10">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -1432,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="10">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -1442,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -1500,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -1510,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="D82" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1520,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -1588,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -1598,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="D90" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -1632,7 +1632,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="10">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -1642,7 +1642,7 @@
         <v>7</v>
       </c>
       <c r="D94" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -1652,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
@@ -1662,7 +1662,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="10">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -1686,7 +1686,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="10">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -1696,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="10">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -1706,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -1720,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -1730,7 +1730,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -1740,7 +1740,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="10">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -1750,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -1764,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -1784,7 +1784,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="10">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
@@ -1794,7 +1794,7 @@
         <v>9</v>
       </c>
       <c r="D108" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -1808,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="10">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -1818,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="D110" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -1828,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="10">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="10">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -1862,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="D114" s="10">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
@@ -1872,7 +1872,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="10">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -1882,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -2424,7 +2424,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -2434,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="D166" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -2444,7 +2444,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
@@ -2698,7 +2698,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -2708,7 +2708,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -3588,7 +3588,7 @@
         <v>8</v>
       </c>
       <c r="D271" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -3964,7 +3964,7 @@
         <v>6</v>
       </c>
       <c r="D305" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -3974,7 +3974,7 @@
         <v>7</v>
       </c>
       <c r="D306" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -3984,7 +3984,7 @@
         <v>8</v>
       </c>
       <c r="D307" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308">
@@ -3994,7 +3994,7 @@
         <v>9</v>
       </c>
       <c r="D308" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309">
@@ -4096,7 +4096,7 @@
         <v>6</v>
       </c>
       <c r="D317" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -4106,7 +4106,7 @@
         <v>7</v>
       </c>
       <c r="D318" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -4116,7 +4116,7 @@
         <v>8</v>
       </c>
       <c r="D319" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -4184,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="D325" s="10">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -4194,7 +4194,7 @@
         <v>7</v>
       </c>
       <c r="D326" s="10">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -4204,7 +4204,7 @@
         <v>8</v>
       </c>
       <c r="D327" s="10">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -4214,7 +4214,7 @@
         <v>9</v>
       </c>
       <c r="D328" s="10">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -4228,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="D329" s="10">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -4238,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="D330" s="10">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -4248,7 +4248,7 @@
         <v>8</v>
       </c>
       <c r="D331" s="10">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -4258,7 +4258,7 @@
         <v>9</v>
       </c>
       <c r="D332" s="10">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -4272,7 +4272,7 @@
         <v>6</v>
       </c>
       <c r="D333" s="10">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -4282,7 +4282,7 @@
         <v>7</v>
       </c>
       <c r="D334" s="10">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -4292,7 +4292,7 @@
         <v>8</v>
       </c>
       <c r="D335" s="10">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -4316,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="D337" s="10">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -4326,7 +4326,7 @@
         <v>7</v>
       </c>
       <c r="D338" s="10">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -4336,7 +4336,7 @@
         <v>8</v>
       </c>
       <c r="D339" s="10">
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -4346,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="D340" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -4360,7 +4360,7 @@
         <v>6</v>
       </c>
       <c r="D341" s="10">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -4370,7 +4370,7 @@
         <v>7</v>
       </c>
       <c r="D342" s="10">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -4380,7 +4380,7 @@
         <v>8</v>
       </c>
       <c r="D343" s="10">
-        <v>91</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -4390,7 +4390,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="10">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -4404,7 +4404,7 @@
         <v>6</v>
       </c>
       <c r="D345" s="10">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -4414,7 +4414,7 @@
         <v>7</v>
       </c>
       <c r="D346" s="10">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -4424,7 +4424,7 @@
         <v>8</v>
       </c>
       <c r="D347" s="10">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -4434,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="D348" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -4448,7 +4448,7 @@
         <v>6</v>
       </c>
       <c r="D349" s="10">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -4458,7 +4458,7 @@
         <v>7</v>
       </c>
       <c r="D350" s="10">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -4468,7 +4468,7 @@
         <v>8</v>
       </c>
       <c r="D351" s="10">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -4478,7 +4478,7 @@
         <v>9</v>
       </c>
       <c r="D352" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -4942,7 +4942,7 @@
         <v>7</v>
       </c>
       <c r="D394" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -4952,7 +4952,7 @@
         <v>8</v>
       </c>
       <c r="D395" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -4996,7 +4996,7 @@
         <v>8</v>
       </c>
       <c r="D399" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -5240,7 +5240,7 @@
         <v>6</v>
       </c>
       <c r="D421" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -5250,7 +5250,7 @@
         <v>7</v>
       </c>
       <c r="D422" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -5260,7 +5260,7 @@
         <v>8</v>
       </c>
       <c r="D423" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -5328,7 +5328,7 @@
         <v>6</v>
       </c>
       <c r="D429" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -5338,7 +5338,7 @@
         <v>7</v>
       </c>
       <c r="D430" s="10">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -5348,7 +5348,7 @@
         <v>8</v>
       </c>
       <c r="D431" s="10">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -5358,7 +5358,7 @@
         <v>9</v>
       </c>
       <c r="D432" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -5436,7 +5436,7 @@
         <v>8</v>
       </c>
       <c r="D439" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -5514,7 +5514,7 @@
         <v>7</v>
       </c>
       <c r="D446" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -5524,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="D447" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -5592,7 +5592,7 @@
         <v>6</v>
       </c>
       <c r="D453" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -5602,7 +5602,7 @@
         <v>7</v>
       </c>
       <c r="D454" s="10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -5612,7 +5612,7 @@
         <v>8</v>
       </c>
       <c r="D455" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -5810,7 +5810,7 @@
         <v>6</v>
       </c>
       <c r="D474" s="18">
-        <v>891</v>
+        <v>180</v>
       </c>
     </row>
     <row r="475">
@@ -5819,7 +5819,7 @@
         <v>7</v>
       </c>
       <c r="D475" s="19">
-        <v>1018</v>
+        <v>185</v>
       </c>
     </row>
     <row r="476">
@@ -5828,7 +5828,7 @@
         <v>8</v>
       </c>
       <c r="D476" s="19">
-        <v>1157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="477">
@@ -5838,7 +5838,7 @@
         <v>9</v>
       </c>
       <c r="D477" s="20">
-        <v>283</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
